--- a/hw/hw9/hw9.xlsx
+++ b/hw/hw9/hw9.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="31" documentId="13_ncr:1_{728C7D61-1A70-4DF7-9ED8-08543967EA02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B805262F-DA8E-441E-A1ED-ACBEE53D64D5}"/>
+  <xr:revisionPtr revIDLastSave="179" documentId="13_ncr:1_{728C7D61-1A70-4DF7-9ED8-08543967EA02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6A43C1B3-DE2A-4862-B6EA-54FC098FA46E}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Problem 1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="106">
   <si>
     <t>Address</t>
   </si>
@@ -173,76 +173,184 @@
     <t>The average memory access time of the instruction cache is ______ cycles.</t>
   </si>
   <si>
+    <t>Overall CPI with memory stalls ______________.</t>
+  </si>
+  <si>
+    <t>Not just overhead.</t>
+  </si>
+  <si>
+    <t>The speedup, if the system has a perfect memory system, is ____.</t>
+  </si>
+  <si>
+    <t>Problem 5</t>
+  </si>
+  <si>
+    <t>Answers</t>
+  </si>
+  <si>
+    <t>When D[0] is accessed, the array elements loaded into cache are D[0] to ____________.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The answer is an array element like D[1]. No spaces. </t>
+  </si>
+  <si>
+    <t>When D[1] is accessed, it is a _______________ (Hit or Miss).</t>
+  </si>
+  <si>
+    <t>The number of hits before the next miss is _______________.</t>
+  </si>
+  <si>
+    <t>The first miss after D[0] is when __________ is accessed.</t>
+  </si>
+  <si>
+    <t>After __________ is accessed, the cache is filled up with data in the data set.</t>
+  </si>
+  <si>
+    <t>When __________ is accessed, D[0] is evicted from the cache.</t>
+  </si>
+  <si>
+    <t>The miss rate of the application on the data set  is _____.</t>
+  </si>
+  <si>
+    <t>h</t>
+  </si>
+  <si>
+    <t>If the block size is 64 bytes, the miss rate is _______.</t>
+  </si>
+  <si>
+    <t>1st memory read. In Column E, enter 1 for hit and 0 for miss.</t>
+  </si>
+  <si>
+    <t>0b1110</t>
+  </si>
+  <si>
+    <t>0b1111</t>
+  </si>
+  <si>
+    <t>0b101001100110</t>
+  </si>
+  <si>
+    <t>0b00110</t>
+  </si>
+  <si>
+    <t>0b111110011000</t>
+  </si>
+  <si>
+    <t>Block 7 is invalid. Leave cells blank for invalid blocks.</t>
+  </si>
+  <si>
+    <t>0b101000111111</t>
+  </si>
+  <si>
+    <t>0b101000100000</t>
+  </si>
+  <si>
+    <t>0b101001011111</t>
+  </si>
+  <si>
+    <t>0b101010111111</t>
+  </si>
+  <si>
+    <t>0b101011011111</t>
+  </si>
+  <si>
+    <t>0b101001000000</t>
+  </si>
+  <si>
+    <t>0b101010100000</t>
+  </si>
+  <si>
+    <t>0b101011000000</t>
+  </si>
+  <si>
+    <t>0b1001</t>
+  </si>
+  <si>
+    <t>0b11010</t>
+  </si>
+  <si>
+    <t>0b100</t>
+  </si>
+  <si>
+    <t>0b11000</t>
+  </si>
+  <si>
+    <t>0b010</t>
+  </si>
+  <si>
+    <t>0b111001111111</t>
+  </si>
+  <si>
+    <t>0b111001100000</t>
+  </si>
+  <si>
+    <t>0b111110011111</t>
+  </si>
+  <si>
+    <t>0b111110000000</t>
+  </si>
+  <si>
+    <t>0b101001111111</t>
+  </si>
+  <si>
+    <t>0b101001100000</t>
+  </si>
+  <si>
+    <t>0b100101011111</t>
+  </si>
+  <si>
+    <t>0b100101000000</t>
+  </si>
+  <si>
+    <t>cache size/block size</t>
+  </si>
+  <si>
+    <t>2^n=number of blocks</t>
+  </si>
+  <si>
+    <t>2^n=block size</t>
+  </si>
+  <si>
+    <t>32- offset-index</t>
+  </si>
+  <si>
+    <t>block size in bits plus tag and status bits</t>
+  </si>
+  <si>
+    <t>only tag and status bits</t>
+  </si>
+  <si>
+    <t>81*.1+1*.9</t>
+  </si>
+  <si>
+    <t>81*.05+1*.95</t>
+  </si>
+  <si>
+    <t>slow over fast</t>
+  </si>
+  <si>
+    <t>Hit</t>
+  </si>
+  <si>
     <t>CPI overhead due to data memory accesses is ________.</t>
   </si>
   <si>
     <t>CPI overhead due to instruction memory accesses _______.</t>
   </si>
   <si>
-    <t>Overall CPI with memory stalls ______________.</t>
-  </si>
-  <si>
-    <t>Not just overhead.</t>
-  </si>
-  <si>
-    <t>The speedup, if the system has a perfect memory system, is ____.</t>
-  </si>
-  <si>
-    <t>Problem 5</t>
-  </si>
-  <si>
-    <t>Answers</t>
-  </si>
-  <si>
-    <t>When D[0] is accessed, the array elements loaded into cache are D[0] to ____________.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The answer is an array element like D[1]. No spaces. </t>
-  </si>
-  <si>
-    <t>When D[1] is accessed, it is a _______________ (Hit or Miss).</t>
-  </si>
-  <si>
-    <t>The number of hits before the next miss is _______________.</t>
-  </si>
-  <si>
-    <t>The first miss after D[0] is when __________ is accessed.</t>
-  </si>
-  <si>
-    <t>After __________ is accessed, the cache is filled up with data in the data set.</t>
-  </si>
-  <si>
-    <t>When __________ is accessed, D[0] is evicted from the cache.</t>
-  </si>
-  <si>
-    <t>The miss rate of the application on the data set  is _____.</t>
-  </si>
-  <si>
-    <t>h</t>
-  </si>
-  <si>
-    <t>If the block size is 64 bytes, the miss rate is _______.</t>
-  </si>
-  <si>
-    <t>1st memory read. In Column E, enter 1 for hit and 0 for miss.</t>
-  </si>
-  <si>
-    <t>0b1110</t>
-  </si>
-  <si>
-    <t>0b1111</t>
-  </si>
-  <si>
-    <t>0b101001100110</t>
-  </si>
-  <si>
-    <t>0b00110</t>
-  </si>
-  <si>
-    <t>0b111110011000</t>
-  </si>
-  <si>
-    <t>Block 7 is invalid. Leave cells blank for invalid blocks.</t>
+    <t xml:space="preserve">going to be similar procedure wise </t>
+  </si>
+  <si>
+    <t>D[15]</t>
+  </si>
+  <si>
+    <t>D[16]</t>
+  </si>
+  <si>
+    <t>D[32752]</t>
+  </si>
+  <si>
+    <t>D[32768]</t>
   </si>
 </sst>
 </file>
@@ -312,7 +420,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -322,9 +430,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -349,6 +454,18 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -364,6 +481,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -631,27 +752,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K43"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J26" sqref="J26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.453125" customWidth="1"/>
-    <col min="2" max="2" width="13.54296875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.54296875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.54296875" customWidth="1"/>
-    <col min="5" max="5" width="9.08984375" customWidth="1"/>
-    <col min="6" max="6" width="9.08984375" style="12" customWidth="1"/>
-    <col min="7" max="7" width="14.453125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="23.08984375" customWidth="1"/>
-    <col min="9" max="9" width="22.54296875" customWidth="1"/>
-    <col min="10" max="10" width="50.6328125" customWidth="1"/>
-    <col min="11" max="11" width="29.453125" customWidth="1"/>
-    <col min="12" max="12" width="14.08984375" customWidth="1"/>
+    <col min="1" max="1" width="19.42578125" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.5703125" customWidth="1"/>
+    <col min="5" max="5" width="9.140625" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" style="11" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="23.140625" customWidth="1"/>
+    <col min="9" max="9" width="22.5703125" customWidth="1"/>
+    <col min="10" max="10" width="50.5703125" customWidth="1"/>
+    <col min="11" max="11" width="29.42578125" customWidth="1"/>
+    <col min="12" max="12" width="14.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -667,7 +788,7 @@
       <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="11" t="s">
+      <c r="F1" s="10" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="2" t="s">
@@ -684,11 +805,11 @@
       </c>
       <c r="K1" s="2"/>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="F2" s="12">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="F2" s="11">
         <v>0</v>
       </c>
-      <c r="G2" s="10" t="s">
+      <c r="G2" s="9" t="s">
         <v>10</v>
       </c>
       <c r="H2" t="s">
@@ -701,278 +822,513 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="F3" s="12">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="F3" s="11">
         <v>1</v>
       </c>
-      <c r="G3" s="10" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="F4" s="12">
+      <c r="G3" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="H3" t="s">
+        <v>68</v>
+      </c>
+      <c r="I3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="F4" s="11">
         <v>2</v>
       </c>
-      <c r="G4" s="10" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="F5" s="12">
+      <c r="G4" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="H4" t="s">
+        <v>70</v>
+      </c>
+      <c r="I4" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="F5" s="11">
         <v>3</v>
       </c>
-      <c r="G5" s="10" t="s">
+      <c r="G5" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="H5" t="s">
+        <v>81</v>
+      </c>
+      <c r="I5" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="F6" s="11">
+        <v>4</v>
+      </c>
+      <c r="G6" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="H6" t="s">
+        <v>83</v>
+      </c>
+      <c r="I6" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="F7" s="11">
+        <v>5</v>
+      </c>
+      <c r="G7" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="H7" t="s">
+        <v>71</v>
+      </c>
+      <c r="I7" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="F8" s="11">
+        <v>6</v>
+      </c>
+      <c r="G8" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="H8" t="s">
+        <v>72</v>
+      </c>
+      <c r="I8" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="F9" s="11">
+        <v>7</v>
+      </c>
+      <c r="G9" s="13"/>
+      <c r="H9" s="14"/>
+      <c r="I9" s="14"/>
+      <c r="J9" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="F6" s="12">
-        <v>4</v>
-      </c>
-      <c r="G6" s="10" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="F7" s="12">
-        <v>5</v>
-      </c>
-      <c r="G7" s="10" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="F8" s="12">
-        <v>6</v>
-      </c>
-      <c r="G8" s="10" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="F9" s="12">
-        <v>7</v>
-      </c>
-      <c r="G9" s="14"/>
-      <c r="H9" s="15"/>
-      <c r="I9" s="15"/>
-      <c r="J9" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
-        <v>66</v>
-      </c>
-      <c r="B10" s="10" t="s">
+      <c r="B10" s="9" t="s">
         <v>10</v>
       </c>
       <c r="C10" t="s">
         <v>14</v>
       </c>
       <c r="D10" t="s">
-        <v>67</v>
+        <v>65</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
       </c>
       <c r="G10" s="1"/>
       <c r="J10" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B11" s="1"/>
-      <c r="F11" s="12">
+      <c r="F11" s="11">
         <v>0</v>
       </c>
-      <c r="G11" s="10"/>
+      <c r="G11" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="H11" t="s">
+        <v>11</v>
+      </c>
+      <c r="I11" t="s">
+        <v>12</v>
+      </c>
       <c r="J11" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="F12" s="12">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="F12" s="11">
         <v>1</v>
       </c>
-      <c r="G12" s="10"/>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="F13" s="12">
+      <c r="G12" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="H12" t="s">
+        <v>68</v>
+      </c>
+      <c r="I12" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="F13" s="11">
         <v>2</v>
       </c>
-      <c r="G13" s="10"/>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="F14" s="12">
+      <c r="G13" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="H13" t="s">
+        <v>70</v>
+      </c>
+      <c r="I13" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="F14" s="11">
         <v>3</v>
       </c>
-      <c r="G14" s="10"/>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="F15" s="12">
+      <c r="G14" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="H14" t="s">
+        <v>85</v>
+      </c>
+      <c r="I14" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="F15" s="11">
         <v>4</v>
       </c>
-      <c r="G15" s="10"/>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="F16" s="12">
+      <c r="G15" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="H15" t="s">
+        <v>83</v>
+      </c>
+      <c r="I15" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="F16" s="11">
         <v>5</v>
       </c>
-      <c r="G16" s="10"/>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="F17" s="12">
+      <c r="G16" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="H16" t="s">
+        <v>71</v>
+      </c>
+      <c r="I16" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F17" s="11">
         <v>6</v>
       </c>
-      <c r="G17" s="10"/>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="F18" s="12">
+      <c r="G17" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="H17" t="s">
+        <v>72</v>
+      </c>
+      <c r="I17" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F18" s="11">
         <v>7</v>
       </c>
-      <c r="G18" s="10"/>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="G18" s="13"/>
+      <c r="H18" s="14"/>
+      <c r="I18" s="14"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>18</v>
       </c>
-      <c r="B19" s="10"/>
+      <c r="B19" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="C19" t="s">
+        <v>80</v>
+      </c>
+      <c r="D19" t="s">
+        <v>77</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
       <c r="J19" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="F20" s="12">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F20" s="11">
         <v>0</v>
       </c>
-      <c r="G20" s="10"/>
+      <c r="G20" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="H20" t="s">
+        <v>11</v>
+      </c>
+      <c r="I20" t="s">
+        <v>12</v>
+      </c>
       <c r="J20" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="F21" s="12">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F21" s="11">
         <v>1</v>
       </c>
-      <c r="G21" s="10"/>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="F22" s="12">
+      <c r="G21" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="H21" t="s">
+        <v>68</v>
+      </c>
+      <c r="I21" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F22" s="11">
         <v>2</v>
       </c>
-      <c r="G22" s="10"/>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="F23" s="12">
+      <c r="G22" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="H22" t="s">
+        <v>87</v>
+      </c>
+      <c r="I22" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F23" s="11">
         <v>3</v>
       </c>
-      <c r="G23" s="10"/>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="F24" s="12">
+      <c r="G23" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="H23" t="s">
+        <v>85</v>
+      </c>
+      <c r="I23" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F24" s="11">
         <v>4</v>
       </c>
-      <c r="G24" s="10"/>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="F25" s="12">
+      <c r="G24" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="H24" t="s">
+        <v>83</v>
+      </c>
+      <c r="I24" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F25" s="11">
         <v>5</v>
       </c>
-      <c r="G25" s="10"/>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="F26" s="12">
+      <c r="G25" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="H25" t="s">
+        <v>71</v>
+      </c>
+      <c r="I25" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F26" s="11">
         <v>6</v>
       </c>
-      <c r="G26" s="10"/>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="F27" s="12">
+      <c r="G26" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="H26" t="s">
+        <v>72</v>
+      </c>
+      <c r="I26" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F27" s="11">
         <v>7</v>
       </c>
-      <c r="G27" s="10"/>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="G27" s="13"/>
+      <c r="H27" s="14"/>
+      <c r="I27" s="14"/>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>68</v>
-      </c>
-      <c r="B28" s="10"/>
+        <v>66</v>
+      </c>
+      <c r="B28" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="C28" t="s">
+        <v>78</v>
+      </c>
+      <c r="D28" t="s">
+        <v>79</v>
+      </c>
+      <c r="E28">
+        <v>1</v>
+      </c>
       <c r="J28" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="F29" s="12">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F29" s="11">
         <v>0</v>
       </c>
-      <c r="G29" s="10"/>
+      <c r="G29" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="H29" t="s">
+        <v>11</v>
+      </c>
+      <c r="I29" t="s">
+        <v>12</v>
+      </c>
       <c r="J29" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="F30" s="12">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F30" s="11">
         <v>1</v>
       </c>
-      <c r="G30" s="10"/>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="F31" s="12">
+      <c r="G30" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="H30" t="s">
+        <v>68</v>
+      </c>
+      <c r="I30" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F31" s="11">
         <v>2</v>
       </c>
-      <c r="G31" s="10"/>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="F32" s="12">
+      <c r="G31" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="H31" t="s">
+        <v>87</v>
+      </c>
+      <c r="I31" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F32" s="11">
         <v>3</v>
       </c>
-      <c r="G32" s="10"/>
-    </row>
-    <row r="33" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="F33" s="12">
+      <c r="G32" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="H32" t="s">
+        <v>85</v>
+      </c>
+      <c r="I32" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="33" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="F33" s="11">
         <v>4</v>
       </c>
-      <c r="G33" s="10"/>
-    </row>
-    <row r="34" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="F34" s="12">
+      <c r="G33" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="H33" t="s">
+        <v>83</v>
+      </c>
+      <c r="I33" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="34" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="F34" s="11">
         <v>5</v>
       </c>
-      <c r="G34" s="10"/>
-    </row>
-    <row r="35" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="F35" s="12">
+      <c r="G34" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="H34" t="s">
+        <v>71</v>
+      </c>
+      <c r="I34" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="35" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="F35" s="11">
         <v>6</v>
       </c>
-      <c r="G35" s="10"/>
-    </row>
-    <row r="36" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="F36" s="12">
+      <c r="G35" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="H35" t="s">
+        <v>72</v>
+      </c>
+      <c r="I35" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="36" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="F36" s="11">
         <v>7</v>
       </c>
-      <c r="G36" s="10"/>
-    </row>
-    <row r="38" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B38" s="10"/>
-      <c r="E38" s="10"/>
-    </row>
-    <row r="39" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B39" s="10"/>
-      <c r="E39" s="10"/>
-    </row>
-    <row r="40" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B40" s="10"/>
-      <c r="E40" s="10"/>
-    </row>
-    <row r="41" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B41" s="10"/>
-      <c r="E41" s="10"/>
-    </row>
-    <row r="42" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B42" s="10"/>
-      <c r="E42" s="10"/>
-    </row>
-    <row r="43" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B43" s="10"/>
-      <c r="E43" s="10"/>
+      <c r="G36" s="13"/>
+      <c r="H36" s="14"/>
+      <c r="I36" s="14"/>
+    </row>
+    <row r="38" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B38" s="9"/>
+      <c r="E38" s="9"/>
+    </row>
+    <row r="39" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B39" s="9"/>
+      <c r="E39" s="9"/>
+    </row>
+    <row r="40" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B40" s="9"/>
+      <c r="E40" s="9"/>
+    </row>
+    <row r="41" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B41" s="9"/>
+      <c r="E41" s="9"/>
+    </row>
+    <row r="42" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B42" s="9"/>
+      <c r="E42" s="9"/>
+    </row>
+    <row r="43" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B43" s="9"/>
+      <c r="E43" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -982,95 +1338,131 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2F0F126-B8B3-4D6E-BEA9-CA4B8D2C60DA}">
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="67.54296875" customWidth="1"/>
-    <col min="3" max="3" width="14.453125" customWidth="1"/>
-    <col min="4" max="4" width="20.453125" customWidth="1"/>
-    <col min="5" max="5" width="16.453125" customWidth="1"/>
+    <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="48" style="15" customWidth="1"/>
+    <col min="3" max="3" width="8" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
         <v>21</v>
       </c>
       <c r="C1" t="s">
         <v>22</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="15" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="12" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="C2">
+        <v>4096</v>
+      </c>
+      <c r="D2" s="15" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>25</v>
       </c>
-      <c r="B3" s="13" t="s">
+      <c r="B3" s="12" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="C3">
+        <v>6</v>
+      </c>
+      <c r="D3" s="15" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>27</v>
       </c>
-      <c r="B4" s="13" t="s">
+      <c r="B4" s="12" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="C4">
+        <v>12</v>
+      </c>
+      <c r="D4" s="15" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>29</v>
       </c>
-      <c r="B5" s="13" t="s">
+      <c r="B5" s="12" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="C5">
+        <v>14</v>
+      </c>
+      <c r="D5" s="15" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>31</v>
       </c>
-      <c r="B6" s="13" t="s">
+      <c r="B6" s="12" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="C6">
+        <v>528</v>
+      </c>
+      <c r="D6" s="15" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>33</v>
       </c>
-      <c r="B7" s="13" t="s">
+      <c r="B7" s="12" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="C7">
+        <v>2162688</v>
+      </c>
+      <c r="D7" s="15"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>35</v>
       </c>
-      <c r="B8" s="13" t="s">
+      <c r="B8" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="E8" s="6"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
+      <c r="C8" s="5">
+        <v>3.0300000000000001E-2</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1083,66 +1475,81 @@
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="61.54296875" customWidth="1"/>
-    <col min="3" max="3" width="14.453125" customWidth="1"/>
+    <col min="2" max="2" width="61.5703125" customWidth="1"/>
+    <col min="3" max="3" width="14.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
         <v>38</v>
       </c>
       <c r="C1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="12" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C2">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>25</v>
       </c>
-      <c r="B3" s="13" t="s">
+      <c r="B3" s="12" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C3">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>27</v>
       </c>
-      <c r="B4" s="13" t="s">
+      <c r="B4" s="12" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C4">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>29</v>
       </c>
-      <c r="B5" s="13" t="s">
+      <c r="B5" s="12" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>31</v>
       </c>
-      <c r="B6" s="13" t="s">
+      <c r="B6" s="12" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="C6">
+        <v>70656</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B7" s="3"/>
-      <c r="C7" s="6"/>
+      <c r="C7" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1154,21 +1561,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF8718DC-A428-4633-9CAE-0C6981B51371}">
   <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.54296875" customWidth="1"/>
-    <col min="2" max="2" width="62.54296875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.90625" customWidth="1"/>
-    <col min="4" max="4" width="25.54296875" customWidth="1"/>
-    <col min="5" max="5" width="34.54296875" customWidth="1"/>
+    <col min="1" max="1" width="10.5703125" customWidth="1"/>
+    <col min="2" max="2" width="67.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.85546875" customWidth="1"/>
+    <col min="4" max="4" width="25.5703125" customWidth="1"/>
+    <col min="5" max="5" width="34.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
         <v>42</v>
       </c>
       <c r="B1" t="s">
@@ -1181,58 +1588,92 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>23</v>
       </c>
       <c r="B2" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="C2">
+        <v>9</v>
+      </c>
+      <c r="D2" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>25</v>
       </c>
       <c r="B3" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="C3">
+        <v>5</v>
+      </c>
+      <c r="D3" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>27</v>
       </c>
       <c r="B4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+        <v>99</v>
+      </c>
+      <c r="C4">
+        <v>2.8</v>
+      </c>
+      <c r="D4" s="18" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>29</v>
       </c>
       <c r="B5" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+        <v>100</v>
+      </c>
+      <c r="C5">
+        <v>4</v>
+      </c>
+      <c r="D5" s="18"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>31</v>
       </c>
       <c r="B6" t="s">
-        <v>48</v>
+        <v>46</v>
+      </c>
+      <c r="C6">
+        <v>8.4</v>
       </c>
       <c r="D6" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>33</v>
       </c>
       <c r="B7" t="s">
-        <v>50</v>
+        <v>48</v>
+      </c>
+      <c r="C7">
+        <v>5.25</v>
+      </c>
+      <c r="D7" t="s">
+        <v>97</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="D4:D5"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
 </worksheet>
@@ -1243,150 +1684,172 @@
   <dimension ref="A1:D20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.54296875" customWidth="1"/>
-    <col min="2" max="2" width="74.54296875" customWidth="1"/>
-    <col min="3" max="3" width="18.08984375" customWidth="1"/>
-    <col min="4" max="4" width="44.54296875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="36.453125" customWidth="1"/>
-    <col min="6" max="6" width="17.453125" customWidth="1"/>
+    <col min="1" max="1" width="10.5703125" customWidth="1"/>
+    <col min="2" max="2" width="51.28515625" style="15" customWidth="1"/>
+    <col min="3" max="3" width="18.140625" customWidth="1"/>
+    <col min="4" max="4" width="29.85546875" style="15" customWidth="1"/>
+    <col min="5" max="5" width="36.42578125" customWidth="1"/>
+    <col min="6" max="6" width="17.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A1" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="B1" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="B1" s="15" t="s">
         <v>43</v>
       </c>
       <c r="C1" t="s">
-        <v>52</v>
-      </c>
-      <c r="D1" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="D1" s="7" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>23</v>
       </c>
-      <c r="B2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D2" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B2" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="C2" t="s">
+        <v>102</v>
+      </c>
+      <c r="D2" s="15" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>25</v>
       </c>
-      <c r="B3" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B3" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="C3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>27</v>
       </c>
-      <c r="B4" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B4" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="C4">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>29</v>
       </c>
-      <c r="B5" t="s">
-        <v>57</v>
-      </c>
-      <c r="D5" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B5" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="C5" t="s">
+        <v>103</v>
+      </c>
+      <c r="D5" s="15" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>31</v>
       </c>
-      <c r="B6" t="s">
-        <v>58</v>
-      </c>
-      <c r="D6" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B6" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="C6" t="s">
+        <v>104</v>
+      </c>
+      <c r="D6" s="15" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>33</v>
       </c>
-      <c r="B7" t="s">
-        <v>59</v>
-      </c>
-      <c r="D7" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B7" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="C7" t="s">
+        <v>105</v>
+      </c>
+      <c r="D7" s="15" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>35</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="C8" s="5">
+        <v>6.25E-2</v>
+      </c>
+      <c r="D8" s="16" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>59</v>
+      </c>
+      <c r="B9" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6" t="s">
+      <c r="C9" s="5">
+        <v>3.1300000000000001E-2</v>
+      </c>
+      <c r="D9" s="16" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
-        <v>61</v>
-      </c>
-      <c r="B9" t="s">
-        <v>62</v>
-      </c>
-      <c r="C9" s="6"/>
-      <c r="D9" s="6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B11" s="8"/>
-      <c r="C11" s="8"/>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B12" s="8"/>
-      <c r="C12" s="9"/>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B13" s="8"/>
-      <c r="C13" s="9"/>
-      <c r="D13" s="5"/>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="D14" s="5"/>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="D15" s="5"/>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="D16" s="5"/>
-    </row>
-    <row r="17" spans="4:4" x14ac:dyDescent="0.35">
-      <c r="D17" s="5"/>
-    </row>
-    <row r="18" spans="4:4" x14ac:dyDescent="0.35">
-      <c r="D18" s="5"/>
-    </row>
-    <row r="19" spans="4:4" x14ac:dyDescent="0.35">
-      <c r="D19" s="5"/>
-    </row>
-    <row r="20" spans="4:4" x14ac:dyDescent="0.35">
-      <c r="D20" s="5"/>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B11" s="7"/>
+      <c r="C11" s="7"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B12" s="7"/>
+      <c r="C12" s="8"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B13" s="7"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="17"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D14" s="17"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D15" s="17"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D16" s="17"/>
+    </row>
+    <row r="17" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D17" s="17"/>
+    </row>
+    <row r="18" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D18" s="17"/>
+    </row>
+    <row r="19" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D19" s="17"/>
+    </row>
+    <row r="20" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D20" s="17"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1395,21 +1858,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101007D78D757F0E08E459F2AFB0B88AC363D" ma:contentTypeVersion="4" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="80cf3abf58796fdade01e89c92578e3f">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="617927c9-7a91-47f2-a1f7-b91276bb3a1e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="26b8125cfd3d5f81fb210011fb1e4eff" ns2:_="">
     <xsd:import namespace="617927c9-7a91-47f2-a1f7-b91276bb3a1e"/>
@@ -1553,24 +2001,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06515994-5A63-43EB-A36C-F3D21C9B1DBB}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D9E5D553-61D9-4158-9457-CDF601F0F7D0}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{24FCFB82-9CC3-4E64-B05E-88578E615133}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1586,4 +2032,21 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D9E5D553-61D9-4158-9457-CDF601F0F7D0}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06515994-5A63-43EB-A36C-F3D21C9B1DBB}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>